--- a/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
+++ b/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C95833-7F11-4893-894A-8E9FC24F83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93C49C-BDAA-412F-BFFA-73FF167D0A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>作成者</t>
   </si>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
@@ -242,19 +238,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メインメニュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,10 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -316,9 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-  </si>
-  <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -604,6 +580,57 @@
       <t>ケシコミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[システム]シート (30, 2) からバージョン情報を取得し表示する</t>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[システム]シート (32, 2) から画面メッセージを取得し表示する</t>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1095,7 +1122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1249,6 +1276,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1391,6 +1421,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1418,12 +1452,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1829,8 +1874,8 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -1862,50 +1907,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
+      <c r="C7" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="D8" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1924,23 +1969,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="F12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="58"/>
+      <c r="F13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="59"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -1950,53 +1995,53 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="3:16" ht="22.5" customHeight="1">
+      <c r="F15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-    </row>
-    <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="59"/>
+      <c r="H15" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="3:16" ht="22.5" customHeight="1">
+      <c r="F16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-    </row>
-    <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="57" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="6:16" ht="22.5" customHeight="1">
+      <c r="F17" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
       <c r="N17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
       <c r="N18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="6:16" ht="22.5" customHeight="1">
@@ -2009,7 +2054,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -2061,52 +2106,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="28"/>
@@ -2132,427 +2177,427 @@
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2659,7 +2704,7 @@
   <dimension ref="A1:BF47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BA24" sqref="BA24"/>
+      <selection activeCell="A3" sqref="A3:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2667,211 +2712,214 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:58" ht="30" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="82" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="119" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="83" t="s">
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="82" t="s">
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="82" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="80" t="str">
+        <f>表紙!H15</f>
+        <v>メインメニュー</v>
+      </c>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="84">
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="85">
         <v>44752</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="82" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="83"/>
-      <c r="BF2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="88"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="6"/>
@@ -2882,98 +2930,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="6"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="88" t="s">
+      <c r="AO5" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="91"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="91"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="92"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="6"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="91"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="6"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="88" t="s">
+      <c r="AO7" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="92"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="6"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="91"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="6"/>
@@ -3459,8 +3507,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3470,26 +3518,28 @@
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="122" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3502,21 +3552,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98" t="str">
+        <f>表紙!H15</f>
+        <v>メインメニュー</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3529,823 +3582,823 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92" t="s">
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="H5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92" t="s">
+      <c r="I5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="92" t="str">
+      <c r="A6" s="93" t="str">
         <f>MID(K6,14,20)</f>
         <v>検針取り込み</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="93"/>
       <c r="E6" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="92" t="str">
+      <c r="A7" s="93" t="str">
         <f>MID(K7,14,20)</f>
         <v>データ更新</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="93"/>
       <c r="E7" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="K7" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="92" t="str">
+      <c r="A8" s="93" t="str">
         <f>MID(K8,14,20)</f>
         <v>納付書</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="93"/>
       <c r="E8" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="92" t="str">
+      <c r="A9" s="93" t="str">
         <f t="shared" ref="A9:A30" si="0">MID(K9,14,20)</f>
         <v>徴収簿</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="93"/>
       <c r="E9" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K9" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="92" t="str">
+      <c r="A10" s="93" t="str">
         <f t="shared" si="0"/>
         <v>調定明細</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="93"/>
       <c r="E10" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="92"/>
+      <c r="A11" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="93"/>
       <c r="E11" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="K11" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="92" t="str">
+      <c r="A12" s="93" t="str">
         <f t="shared" si="0"/>
         <v>テナント</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="93"/>
       <c r="E12" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K12" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="92" t="str">
+      <c r="A13" s="93" t="str">
         <f t="shared" si="0"/>
         <v>テナント属性</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="93"/>
       <c r="E13" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K13" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="92" t="str">
+      <c r="A14" s="93" t="str">
         <f t="shared" si="0"/>
         <v>メータ属性</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="93"/>
       <c r="E14" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K14" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="117" t="str">
+      <c r="A15" s="108" t="str">
         <f t="shared" ref="A15" si="1">MID(K15,14,20)</f>
         <v>調整入力</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118" t="s">
-        <v>47</v>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
+      <c r="K15" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="117" t="str">
+      <c r="A16" s="108" t="str">
         <f t="shared" ref="A16:A17" si="2">MID(K16,14,20)</f>
         <v>口座データ</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118" t="s">
-        <v>47</v>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="108"/>
+      <c r="E16" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="K16" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="117" t="str">
+      <c r="A17" s="108" t="str">
         <f t="shared" si="2"/>
         <v>入金消込</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118" t="s">
-        <v>47</v>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
+      <c r="K17" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="106"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="92" t="str">
+      <c r="A19" s="93" t="str">
         <f t="shared" si="0"/>
         <v>口径</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="93"/>
       <c r="E19" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
+      <c r="K19" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="92" t="str">
+      <c r="A20" s="93" t="str">
         <f t="shared" si="0"/>
         <v>按分設定</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="93"/>
       <c r="E20" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="92" t="str">
+      <c r="A21" s="93" t="str">
         <f t="shared" si="0"/>
         <v>種別</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="93"/>
       <c r="E21" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
+      <c r="K21" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="92"/>
+      <c r="A22" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="93"/>
       <c r="E22" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
+      <c r="K22" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="92" t="str">
+      <c r="A23" s="93" t="str">
         <f t="shared" si="0"/>
         <v>面積単価</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="93"/>
       <c r="E23" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K23" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="92" t="str">
+      <c r="A24" s="93" t="str">
         <f t="shared" si="0"/>
         <v>請求方法</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="93"/>
       <c r="E24" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K24" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="92" t="str">
+      <c r="A25" s="93" t="str">
         <f t="shared" si="0"/>
         <v>従量電灯A</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="93"/>
       <c r="E25" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K25" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="92" t="str">
+      <c r="A26" s="93" t="str">
         <f t="shared" si="0"/>
         <v>水道</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="93"/>
       <c r="E26" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
+        <v>69</v>
+      </c>
+      <c r="K26" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="92" t="str">
+      <c r="A27" s="93" t="str">
         <f t="shared" si="0"/>
         <v>業務用電力</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="93"/>
       <c r="E27" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
+      <c r="K27" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="92" t="str">
+      <c r="A28" s="93" t="str">
         <f t="shared" si="0"/>
         <v>下水道</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="93"/>
       <c r="E28" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
+      <c r="K28" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="92" t="str">
+      <c r="A29" s="93" t="str">
         <f t="shared" si="0"/>
         <v>バックアップ</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="92"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="93"/>
       <c r="E29" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
+      <c r="K29" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="92" t="str">
+      <c r="A30" s="93" t="str">
         <f t="shared" si="0"/>
         <v>システム</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="93"/>
       <c r="E30" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
+      <c r="K30" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="40"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="93">
@@ -4457,7 +4510,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4466,26 +4519,28 @@
     <col min="2" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="122" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4495,24 +4550,29 @@
       <c r="P1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="33" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98" t="str">
+        <f>表紙!H15</f>
+        <v>メインメニュー</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4522,477 +4582,483 @@
       <c r="P2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="37">
+        <v>45833</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
+      <c r="A4" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="109"/>
+      <c r="C5" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="112"/>
+      <c r="C6" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
+      <c r="C10" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="115"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="115"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="112"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
+      <c r="C25" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="112"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="30">
